--- a/tests/nrt7/input_nrt7.xlsx
+++ b/tests/nrt7/input_nrt7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF41B7A9-4B2D-47EA-A8D7-83AEBA9F6356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3150D7-4681-4A55-839B-E9FB88746A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>soins,neo</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B6" sqref="B4:D6"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,18 +504,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -546,12 +546,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -571,12 +571,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -665,22 +665,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -879,10 +879,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +926,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/nrt7/input_nrt7.xlsx
+++ b/tests/nrt7/input_nrt7.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3150D7-4681-4A55-839B-E9FB88746A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA82F9-E7B9-48A3-9C84-A8B9757ADC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -153,6 +135,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -501,21 +501,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -546,12 +546,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -571,12 +571,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -598,35 +598,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,31 +656,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -688,10 +688,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -728,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -748,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -771,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +926,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
